--- a/StrategyAdmin/userexcel/abhishek.xlsx
+++ b/StrategyAdmin/userexcel/abhishek.xlsx
@@ -1,62 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DCC060C543D4C5D154414E3AEFE7622E3D5A3C2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Kaas\StrategyAdmin\userexcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00178C16-7BF4-4FC3-A439-4ED17DEB26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="780" windowWidth="20580" windowHeight="14130" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Holdings" sheetId="1" r:id="rId1"/>
-    <sheet name="MPWizard" sheetId="2" r:id="rId2"/>
-    <sheet name="OvernightFutures" sheetId="3" r:id="rId3"/>
-    <sheet name="ExpiryTrader" sheetId="4" r:id="rId4"/>
-    <sheet name="ErrorTrade" sheetId="5" r:id="rId5"/>
+    <sheet name="MPWizard" sheetId="2" r:id="rId1"/>
+    <sheet name="OvernightFutures" sheetId="3" r:id="rId2"/>
+    <sheet name="ExpiryTrader" sheetId="4" r:id="rId3"/>
+    <sheet name="ErrorTrade" sheetId="5" r:id="rId4"/>
+    <sheet name="Holdings" sheetId="1" r:id="rId5"/>
     <sheet name="Transactions" sheetId="6" r:id="rId6"/>
     <sheet name="DTD" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="405">
-  <si>
-    <t>Tr.No</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
-    <t>Exit Date</t>
-  </si>
-  <si>
-    <t>Entry Price</t>
-  </si>
-  <si>
-    <t>Exit Price</t>
-  </si>
-  <si>
-    <t>Trade Points</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>PnL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margin Used </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="359">
   <si>
     <t>trade_id</t>
   </si>
@@ -382,106 +368,124 @@
     <t>BANKNIFTY28DEC23C47600</t>
   </si>
   <si>
-    <t>2023-12-26 10:23:00</t>
-  </si>
-  <si>
-    <t>2023-12-26 11:02:00</t>
-  </si>
-  <si>
     <t>MP231</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21450</t>
   </si>
   <si>
-    <t>2023-12-26 10:48:00</t>
-  </si>
-  <si>
     <t>MP232</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21550</t>
   </si>
   <si>
-    <t>2023-12-27 10:27:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 12:23:00</t>
-  </si>
-  <si>
     <t>MP233</t>
   </si>
   <si>
-    <t>2023-12-27 10:28:00</t>
-  </si>
-  <si>
     <t>MP234</t>
   </si>
   <si>
     <t>NIFTY28DEC23C21750</t>
   </si>
   <si>
-    <t>2023-12-28 12:28:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 12:51:00</t>
-  </si>
-  <si>
     <t>MP235</t>
   </si>
   <si>
     <t>FINNIFTY02JAN24C21500</t>
   </si>
   <si>
-    <t>2023-12-28 14:15:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 14:49:00</t>
-  </si>
-  <si>
     <t>MP236</t>
   </si>
   <si>
     <t>FINNIFTY02JAN24P21450</t>
   </si>
   <si>
-    <t>2023-12-29 10:16:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 10:47:00</t>
-  </si>
-  <si>
     <t>MP237</t>
   </si>
   <si>
     <t>BANKNIFTY03JAN24C48200</t>
   </si>
   <si>
-    <t>2023-12-29 10:30:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 10:54:00</t>
-  </si>
-  <si>
     <t>MP238</t>
   </si>
   <si>
-    <t>2024-01-01 10:38:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 11:18:00</t>
-  </si>
-  <si>
     <t>MP239</t>
   </si>
   <si>
     <t>BANKNIFTY03JAN24C48300</t>
   </si>
   <si>
-    <t>2024-01-01 10:41:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 15:01:00</t>
+    <t>MP240</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24C21600</t>
+  </si>
+  <si>
+    <t>MP241</t>
+  </si>
+  <si>
+    <t>BANKNIFTY03JAN24C47900</t>
+  </si>
+  <si>
+    <t>MP242</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24C21550</t>
+  </si>
+  <si>
+    <t>MP243</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24C21250</t>
+  </si>
+  <si>
+    <t>MP244</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24P21650</t>
+  </si>
+  <si>
+    <t>2024-01-04 10:16:00</t>
+  </si>
+  <si>
+    <t>2024-01-04 13:06:00</t>
+  </si>
+  <si>
+    <t>MP245</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24P21450</t>
+  </si>
+  <si>
+    <t>2024-01-04 10:21:00</t>
+  </si>
+  <si>
+    <t>2024-01-04 11:03:00</t>
+  </si>
+  <si>
+    <t>MP246</t>
+  </si>
+  <si>
+    <t>BANKNIFTY10JAN24P48200</t>
+  </si>
+  <si>
+    <t>2024-01-05 10:41:00</t>
+  </si>
+  <si>
+    <t>2024-01-05 11:09:00</t>
+  </si>
+  <si>
+    <t>MP247</t>
+  </si>
+  <si>
+    <t>FINNIFTY09JAN24P21500</t>
+  </si>
+  <si>
+    <t>2024-01-05 10:44:00</t>
+  </si>
+  <si>
+    <t>2024-01-05 11:12:00</t>
   </si>
   <si>
     <t>OF76</t>
@@ -535,6 +539,15 @@
     <t>OF89</t>
   </si>
   <si>
+    <t>OF90</t>
+  </si>
+  <si>
+    <t>OF91</t>
+  </si>
+  <si>
+    <t>OF92</t>
+  </si>
+  <si>
     <t>ET53</t>
   </si>
   <si>
@@ -685,69 +698,87 @@
     <t>FINNIFTY26DEC23P21200</t>
   </si>
   <si>
-    <t>2023-12-26 09:20:00</t>
-  </si>
-  <si>
-    <t>2023-12-26 15:13:00</t>
-  </si>
-  <si>
     <t>ET67</t>
   </si>
   <si>
     <t>BANKNIFTY28DEC23P47700</t>
   </si>
   <si>
-    <t>2023-12-27 09:20:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 15:13:00</t>
-  </si>
-  <si>
     <t>ET68</t>
   </si>
   <si>
     <t>NIFTY28DEC23P21650</t>
   </si>
   <si>
-    <t>2023-12-28 09:20:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 15:14:00</t>
-  </si>
-  <si>
     <t>ET69</t>
   </si>
   <si>
     <t>SENSEX23DEC72200PE</t>
   </si>
   <si>
-    <t>2023-12-29 09:20:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 15:13:00</t>
-  </si>
-  <si>
     <t>ET70</t>
   </si>
   <si>
     <t>MIDCPNIFTY01JAN24P10400</t>
   </si>
   <si>
-    <t>2024-01-01 09:20:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 15:13:00</t>
-  </si>
-  <si>
-    <t>transaction_type</t>
+    <t>ET71</t>
+  </si>
+  <si>
+    <t>FINNIFTY02JAN24P21400</t>
+  </si>
+  <si>
+    <t>ET72</t>
+  </si>
+  <si>
+    <t>BANKNIFTY03JAN24P47600</t>
+  </si>
+  <si>
+    <t>ET73</t>
+  </si>
+  <si>
+    <t>NIFTY04JAN24C21650</t>
+  </si>
+  <si>
+    <t>2024-01-04 09:20:00</t>
+  </si>
+  <si>
+    <t>2024-01-04 15:13:00</t>
+  </si>
+  <si>
+    <t>ET74</t>
+  </si>
+  <si>
+    <t>SENSEX2410572100CE</t>
+  </si>
+  <si>
+    <t>2024-01-05 09:20:00</t>
+  </si>
+  <si>
+    <t>2024-01-05 15:13:00</t>
+  </si>
+  <si>
+    <t>Tarde ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Deposit</t>
   </si>
   <si>
     <t>Sl NO</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -757,24 +788,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Running Balance</t>
-  </si>
-  <si>
-    <t>02-Dec-23</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
-    <t>₹99,000.00</t>
-  </si>
-  <si>
     <t>06-Dec-23</t>
   </si>
   <si>
@@ -787,24 +800,15 @@
     <t>-₹3.99</t>
   </si>
   <si>
-    <t>₹98,996.01</t>
-  </si>
-  <si>
     <t>₹969.18</t>
   </si>
   <si>
-    <t>₹99,965.19</t>
-  </si>
-  <si>
     <t>ExpiryTrader</t>
   </si>
   <si>
     <t>-₹3,830.93</t>
   </si>
   <si>
-    <t>₹96,134.26</t>
-  </si>
-  <si>
     <t>07-Dec-23</t>
   </si>
   <si>
@@ -814,30 +818,18 @@
     <t>₹1,685.92</t>
   </si>
   <si>
-    <t>₹97,820.18</t>
-  </si>
-  <si>
     <t>₹137.12</t>
   </si>
   <si>
-    <t>₹97,957.30</t>
-  </si>
-  <si>
     <t>OvernightFutures</t>
   </si>
   <si>
     <t>-₹3,630.99</t>
   </si>
   <si>
-    <t>₹94,326.31</t>
-  </si>
-  <si>
     <t>₹1,264.59</t>
   </si>
   <si>
-    <t>₹95,590.90</t>
-  </si>
-  <si>
     <t>08-Dec-23</t>
   </si>
   <si>
@@ -847,27 +839,15 @@
     <t>-₹746.69</t>
   </si>
   <si>
-    <t>₹94,844.21</t>
-  </si>
-  <si>
     <t>-₹1,891.43</t>
   </si>
   <si>
-    <t>₹92,952.78</t>
-  </si>
-  <si>
     <t>-₹1,248.43</t>
   </si>
   <si>
-    <t>₹91,704.34</t>
-  </si>
-  <si>
     <t>₹507.10</t>
   </si>
   <si>
-    <t>₹92,211.44</t>
-  </si>
-  <si>
     <t>11-Dec-23</t>
   </si>
   <si>
@@ -877,21 +857,12 @@
     <t>-₹109.88</t>
   </si>
   <si>
-    <t>₹92,101.56</t>
-  </si>
-  <si>
     <t>-₹100.92</t>
   </si>
   <si>
-    <t>₹92,000.64</t>
-  </si>
-  <si>
     <t>₹703.35</t>
   </si>
   <si>
-    <t>₹92,703.99</t>
-  </si>
-  <si>
     <t>12-Dec-23</t>
   </si>
   <si>
@@ -901,346 +872,253 @@
     <t>-₹343.56</t>
   </si>
   <si>
-    <t>₹92,360.43</t>
-  </si>
-  <si>
     <t>-₹2,095.16</t>
   </si>
   <si>
-    <t>₹90,265.27</t>
-  </si>
-  <si>
     <t>₹730.18</t>
   </si>
   <si>
-    <t>₹90,995.45</t>
-  </si>
-  <si>
     <t>-₹1,672.70</t>
   </si>
   <si>
-    <t>₹89,322.75</t>
-  </si>
-  <si>
     <t>13-Dec-23</t>
   </si>
   <si>
     <t>-₹118.59</t>
   </si>
   <si>
-    <t>₹89,204.16</t>
-  </si>
-  <si>
     <t>-₹1,961.69</t>
   </si>
   <si>
-    <t>₹87,242.47</t>
-  </si>
-  <si>
     <t>₹1,766.63</t>
   </si>
   <si>
-    <t>₹89,009.10</t>
-  </si>
-  <si>
     <t>14-Dec-23</t>
   </si>
   <si>
     <t>₹524.40</t>
   </si>
   <si>
-    <t>₹89,533.50</t>
-  </si>
-  <si>
     <t>-₹13,664.89</t>
   </si>
   <si>
-    <t>₹75,868.61</t>
-  </si>
-  <si>
     <t>₹552.09</t>
   </si>
   <si>
-    <t>₹76,420.70</t>
-  </si>
-  <si>
     <t>15-Dec-23</t>
   </si>
   <si>
     <t>-₹614.94</t>
   </si>
   <si>
-    <t>₹75,805.76</t>
-  </si>
-  <si>
     <t>-₹482.20</t>
   </si>
   <si>
-    <t>₹75,323.56</t>
-  </si>
-  <si>
     <t>₹2,445.77</t>
   </si>
   <si>
-    <t>₹77,769.33</t>
-  </si>
-  <si>
     <t>₹511.59</t>
   </si>
   <si>
-    <t>₹78,280.92</t>
-  </si>
-  <si>
     <t>18-Dec-23</t>
   </si>
   <si>
     <t>-₹1,194.94</t>
   </si>
   <si>
-    <t>₹77,085.98</t>
-  </si>
-  <si>
     <t>-₹1,786.07</t>
   </si>
   <si>
-    <t>₹75,299.91</t>
-  </si>
-  <si>
     <t>₹2,217.81</t>
   </si>
   <si>
-    <t>₹77,517.72</t>
-  </si>
-  <si>
     <t>19-Dec-23</t>
   </si>
   <si>
     <t>₹1,070.92</t>
   </si>
   <si>
-    <t>₹69,588.64</t>
-  </si>
-  <si>
     <t>₹1,030.09</t>
   </si>
   <si>
-    <t>₹70,618.73</t>
-  </si>
-  <si>
     <t>-₹753.18</t>
   </si>
   <si>
-    <t>₹69,865.55</t>
-  </si>
-  <si>
     <t>₹1,054.59</t>
   </si>
   <si>
-    <t>₹70,920.14</t>
-  </si>
-  <si>
     <t>20-Dec-23</t>
   </si>
   <si>
     <t>-₹716.44</t>
   </si>
   <si>
-    <t>₹70,203.70</t>
-  </si>
-  <si>
     <t>-₹1,198.57</t>
   </si>
   <si>
-    <t>₹69,005.13</t>
-  </si>
-  <si>
     <t>-₹4,106.46</t>
   </si>
   <si>
-    <t>₹64,898.67</t>
-  </si>
-  <si>
     <t>₹685.90</t>
   </si>
   <si>
-    <t>₹65,584.57</t>
-  </si>
-  <si>
     <t>21-Dec-23</t>
   </si>
   <si>
     <t>-₹1,036.87</t>
   </si>
   <si>
-    <t>₹64,547.70</t>
-  </si>
-  <si>
     <t>₹1,267.84</t>
   </si>
   <si>
-    <t>₹65,815.54</t>
-  </si>
-  <si>
     <t>-₹3,389.75</t>
   </si>
   <si>
-    <t>₹62,425.79</t>
-  </si>
-  <si>
     <t>₹1,874.59</t>
   </si>
   <si>
-    <t>₹64,300.38</t>
-  </si>
-  <si>
     <t>22-Dec-23</t>
   </si>
   <si>
     <t>-₹835.48</t>
   </si>
   <si>
-    <t>₹63,464.90</t>
-  </si>
-  <si>
     <t>₹1,597.27</t>
   </si>
   <si>
-    <t>₹65,062.17</t>
-  </si>
-  <si>
     <t>-₹1,488.45</t>
   </si>
   <si>
-    <t>₹63,573.72</t>
-  </si>
-  <si>
     <t>₹864.59</t>
   </si>
   <si>
-    <t>₹64,438.31</t>
-  </si>
-  <si>
     <t>26-Dec-23</t>
   </si>
   <si>
     <t>-₹217.96</t>
   </si>
   <si>
-    <t>₹64,220.35</t>
-  </si>
-  <si>
     <t>₹455.71</t>
   </si>
   <si>
-    <t>₹64,676.06</t>
-  </si>
-  <si>
     <t>₹1,076.59</t>
   </si>
   <si>
-    <t>₹65,752.65</t>
-  </si>
-  <si>
     <t>27-Dec-23</t>
   </si>
   <si>
     <t>-₹593.48</t>
   </si>
   <si>
-    <t>₹65,159.17</t>
-  </si>
-  <si>
     <t>₹1,122.36</t>
   </si>
   <si>
-    <t>₹66,281.53</t>
-  </si>
-  <si>
     <t>₹1,249.96</t>
   </si>
   <si>
-    <t>₹67,531.50</t>
-  </si>
-  <si>
     <t>₹831.88</t>
   </si>
   <si>
-    <t>₹68,363.38</t>
-  </si>
-  <si>
     <t>28-Dec-23</t>
   </si>
   <si>
     <t>-₹1,224.67</t>
   </si>
   <si>
-    <t>₹67,138.71</t>
-  </si>
-  <si>
     <t>-₹739.46</t>
   </si>
   <si>
-    <t>₹66,399.25</t>
-  </si>
-  <si>
     <t>₹1,714.05</t>
   </si>
   <si>
-    <t>₹68,113.30</t>
-  </si>
-  <si>
     <t>₹792.08</t>
   </si>
   <si>
-    <t>₹68,905.38</t>
-  </si>
-  <si>
     <t>29-Dec-23</t>
   </si>
   <si>
     <t>-₹1,729.38</t>
   </si>
   <si>
-    <t>₹67,176.00</t>
-  </si>
-  <si>
     <t>-₹285.76</t>
   </si>
   <si>
-    <t>₹66,890.24</t>
-  </si>
-  <si>
     <t>-₹2,949.98</t>
   </si>
   <si>
-    <t>₹63,940.26</t>
-  </si>
-  <si>
     <t>₹736.03</t>
   </si>
   <si>
-    <t>₹64,676.29</t>
-  </si>
-  <si>
     <t>01-Jan-24</t>
   </si>
   <si>
     <t>₹33.52</t>
   </si>
   <si>
-    <t>₹64,709.81</t>
-  </si>
-  <si>
     <t>₹1,547.48</t>
   </si>
   <si>
-    <t>₹66,257.29</t>
-  </si>
-  <si>
     <t>₹1,449.58</t>
   </si>
   <si>
-    <t>₹67,706.87</t>
+    <t>02-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹1,054.65</t>
+  </si>
+  <si>
+    <t>-₹1,007.44</t>
+  </si>
+  <si>
+    <t>-₹2,768.63</t>
+  </si>
+  <si>
+    <t>-₹2,659.06</t>
+  </si>
+  <si>
+    <t>03-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹255.29</t>
+  </si>
+  <si>
+    <t>-₹129.61</t>
+  </si>
+  <si>
+    <t>₹1,373.61</t>
+  </si>
+  <si>
+    <t>₹1,773.60</t>
+  </si>
+  <si>
+    <t>04-Jan-24</t>
+  </si>
+  <si>
+    <t>-₹1,238.66</t>
+  </si>
+  <si>
+    <t>-₹214.95</t>
+  </si>
+  <si>
+    <t>-₹4,408.73</t>
+  </si>
+  <si>
+    <t>₹696.99</t>
+  </si>
+  <si>
+    <t>05-Jan-24</t>
+  </si>
+  <si>
+    <t>₹1,079.26</t>
+  </si>
+  <si>
+    <t>₹757.54</t>
+  </si>
+  <si>
+    <t>₹1,111.71</t>
+  </si>
+  <si>
+    <t>₹800.59</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1330,6 +1208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1633,53 +1514,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1687,63 +1523,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4">
         <v>80.8</v>
@@ -1775,19 +1611,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>169.2</v>
@@ -1819,19 +1655,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
         <v>143.80000000000001</v>
@@ -1863,19 +1699,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4">
         <v>376.15</v>
@@ -1907,19 +1743,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6" s="4">
         <v>108.05</v>
@@ -1951,19 +1787,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4">
         <v>357.85</v>
@@ -1995,19 +1831,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4">
         <v>286.3</v>
@@ -2039,19 +1875,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4">
         <v>77.5</v>
@@ -2083,19 +1919,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4">
         <v>228.3</v>
@@ -2127,19 +1963,19 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4">
         <v>98.8</v>
@@ -2171,19 +2007,19 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4">
         <v>92.9</v>
@@ -2215,19 +2051,19 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4">
         <v>20.85</v>
@@ -2259,19 +2095,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4">
         <v>122.35</v>
@@ -2303,19 +2139,19 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4">
         <v>102.6</v>
@@ -2347,19 +2183,19 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4">
         <v>90</v>
@@ -2391,19 +2227,19 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4">
         <v>127.07</v>
@@ -2435,19 +2271,19 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F18" s="4">
         <v>128.75</v>
@@ -2479,19 +2315,19 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F19" s="4">
         <v>69.55</v>
@@ -2523,19 +2359,19 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4">
         <v>47.4</v>
@@ -2567,19 +2403,19 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F21" s="4">
         <v>166.5</v>
@@ -2611,19 +2447,19 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F22" s="4">
         <v>134.69999999999999</v>
@@ -2655,19 +2491,19 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F23" s="4">
         <v>56.05</v>
@@ -2699,19 +2535,19 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F24" s="4">
         <v>185</v>
@@ -2743,19 +2579,19 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F25" s="4">
         <v>454.46</v>
@@ -2787,19 +2623,19 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>119</v>
+        <v>16</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45286.432638888888</v>
+      </c>
+      <c r="E26" s="5">
+        <v>45286.459722222222</v>
       </c>
       <c r="F26" s="4">
         <v>389.2</v>
@@ -2831,19 +2667,19 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>122</v>
+        <v>16</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45286.432638888888</v>
+      </c>
+      <c r="E27" s="5">
+        <v>45286.45</v>
       </c>
       <c r="F27" s="4">
         <v>122.65</v>
@@ -2875,19 +2711,19 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45287.435416666667</v>
+      </c>
+      <c r="E28" s="5">
+        <v>45287.515972222223</v>
       </c>
       <c r="F28" s="4">
         <v>100.65</v>
@@ -2919,19 +2755,19 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="D29" s="5">
+        <v>45287.436111111107</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45287.515972222223</v>
       </c>
       <c r="F29" s="4">
         <v>258.60000000000002</v>
@@ -2963,19 +2799,19 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="D30" s="5">
+        <v>45288.519444444442</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45288.535416666673</v>
       </c>
       <c r="F30" s="4">
         <v>52.15</v>
@@ -3007,19 +2843,19 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>136</v>
+        <v>16</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45288.59375</v>
+      </c>
+      <c r="E31" s="5">
+        <v>45288.617361111108</v>
       </c>
       <c r="F31" s="4">
         <v>179</v>
@@ -3051,19 +2887,19 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>140</v>
+        <v>16</v>
+      </c>
+      <c r="D32" s="5">
+        <v>45289.427777777782</v>
+      </c>
+      <c r="E32" s="5">
+        <v>45289.449305555558</v>
       </c>
       <c r="F32" s="4">
         <v>107.5</v>
@@ -3095,19 +2931,19 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>144</v>
+        <v>16</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45289.4375</v>
+      </c>
+      <c r="E33" s="5">
+        <v>45289.45416666667</v>
       </c>
       <c r="F33" s="4">
         <v>417.1</v>
@@ -3139,19 +2975,19 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="D34" s="5">
+        <v>45292.443055555559</v>
+      </c>
+      <c r="E34" s="5">
+        <v>45292.470833333333</v>
       </c>
       <c r="F34" s="4">
         <v>69.099999999999994</v>
@@ -3183,19 +3019,19 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45292.445138888892</v>
+      </c>
+      <c r="E35" s="5">
+        <v>45292.625694444447</v>
       </c>
       <c r="F35" s="4">
         <v>324.39999999999998</v>
@@ -3223,6 +3059,358 @@
       </c>
       <c r="N35" s="4">
         <v>1547.48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5">
+        <v>45293.434027777781</v>
+      </c>
+      <c r="E36" s="5">
+        <v>45293.442361111112</v>
+      </c>
+      <c r="F36" s="4">
+        <v>128.6</v>
+      </c>
+      <c r="G36" s="4">
+        <v>108.35</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-20.25</v>
+      </c>
+      <c r="K36" s="3">
+        <v>50</v>
+      </c>
+      <c r="L36" s="4">
+        <v>-1012.5</v>
+      </c>
+      <c r="M36" s="4">
+        <v>42.15</v>
+      </c>
+      <c r="N36" s="4">
+        <v>-1054.6500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5">
+        <v>45293.435416666667</v>
+      </c>
+      <c r="E37" s="5">
+        <v>45293.487500000003</v>
+      </c>
+      <c r="F37" s="4">
+        <v>227</v>
+      </c>
+      <c r="G37" s="4">
+        <v>162.4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="K37" s="3">
+        <v>15</v>
+      </c>
+      <c r="L37" s="4">
+        <v>-969</v>
+      </c>
+      <c r="M37" s="4">
+        <v>38.44</v>
+      </c>
+      <c r="N37" s="4">
+        <v>-1007.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45294.431250000001</v>
+      </c>
+      <c r="E38" s="5">
+        <v>45294.448611111111</v>
+      </c>
+      <c r="F38" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="G38" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>-4.3</v>
+      </c>
+      <c r="K38" s="3">
+        <v>50</v>
+      </c>
+      <c r="L38" s="4">
+        <v>-215</v>
+      </c>
+      <c r="M38" s="4">
+        <v>40.29</v>
+      </c>
+      <c r="N38" s="4">
+        <v>-255.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45294.431250000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>45294.504166666673</v>
+      </c>
+      <c r="F39" s="4">
+        <v>166.95</v>
+      </c>
+      <c r="G39" s="4">
+        <v>164.8</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>-2.15</v>
+      </c>
+      <c r="K39" s="3">
+        <v>40</v>
+      </c>
+      <c r="L39" s="4">
+        <v>-86</v>
+      </c>
+      <c r="M39" s="4">
+        <v>43.61</v>
+      </c>
+      <c r="N39" s="4">
+        <v>-129.61000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="4">
+        <v>36.25</v>
+      </c>
+      <c r="G40" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>-24.05</v>
+      </c>
+      <c r="K40" s="3">
+        <v>50</v>
+      </c>
+      <c r="L40" s="4">
+        <v>-1202.5</v>
+      </c>
+      <c r="M40" s="4">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="N40" s="4">
+        <v>-1238.6600000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="4">
+        <v>115.65</v>
+      </c>
+      <c r="G41" s="4">
+        <v>111.3</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-4.3499999999999996</v>
+      </c>
+      <c r="K41" s="3">
+        <v>40</v>
+      </c>
+      <c r="L41" s="4">
+        <v>-174</v>
+      </c>
+      <c r="M41" s="4">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="N41" s="4">
+        <v>-214.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="4">
+        <v>265.47000000000003</v>
+      </c>
+      <c r="G42" s="4">
+        <v>303.05</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>37.58</v>
+      </c>
+      <c r="K42" s="3">
+        <v>30</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1127.4000000000001</v>
+      </c>
+      <c r="M42" s="4">
+        <v>48.14</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1079.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>100.85</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K43" s="3">
+        <v>80</v>
+      </c>
+      <c r="L43" s="4">
+        <v>804</v>
+      </c>
+      <c r="M43" s="4">
+        <v>46.46</v>
+      </c>
+      <c r="N43" s="4">
+        <v>757.54</v>
       </c>
     </row>
   </sheetData>
@@ -3230,9 +3418,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3240,57 +3428,57 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5">
         <v>45266.635416666657</v>
@@ -3328,13 +3516,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5">
         <v>45267.635416666657</v>
@@ -3372,13 +3560,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5">
         <v>45271.636805555558</v>
@@ -3416,13 +3604,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5">
         <v>45272.635416666657</v>
@@ -3460,13 +3648,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="5">
         <v>45273.635416666657</v>
@@ -3504,13 +3692,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5">
         <v>45274.635416666657</v>
@@ -3548,13 +3736,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5">
         <v>45278.635416666657</v>
@@ -3592,13 +3780,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5">
         <v>45279.636111111111</v>
@@ -3636,13 +3824,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5">
         <v>45280.635416666657</v>
@@ -3680,13 +3868,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
         <v>45281.636111111111</v>
@@ -3724,13 +3912,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5">
         <v>45286.636111111111</v>
@@ -3751,30 +3939,30 @@
         <v>18.399999999999999</v>
       </c>
       <c r="J12" s="4">
-        <v>33.850000000001451</v>
+        <v>33.85</v>
       </c>
       <c r="K12" s="3">
         <v>50</v>
       </c>
       <c r="L12" s="4">
-        <v>1692.500000000073</v>
+        <v>1692.5</v>
       </c>
       <c r="M12" s="4">
-        <v>442.53905308499998</v>
+        <v>442.54</v>
       </c>
       <c r="N12" s="4">
-        <v>1249.960946915073</v>
+        <v>1249.96</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>45287.636111111111</v>
@@ -3795,30 +3983,30 @@
         <v>7.7</v>
       </c>
       <c r="J13" s="4">
-        <v>43.15000000000073</v>
+        <v>43.15</v>
       </c>
       <c r="K13" s="3">
         <v>50</v>
       </c>
       <c r="L13" s="4">
-        <v>2157.5000000000359</v>
+        <v>2157.5</v>
       </c>
       <c r="M13" s="4">
-        <v>443.44731493500001</v>
+        <v>443.45</v>
       </c>
       <c r="N13" s="4">
-        <v>1714.052685065036</v>
+        <v>1714.05</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5">
         <v>45288.636805555558</v>
@@ -3839,63 +4027,205 @@
         <v>108.7</v>
       </c>
       <c r="J14" s="4">
-        <v>-49.950000000002177</v>
+        <v>-49.95</v>
       </c>
       <c r="K14" s="3">
         <v>50</v>
       </c>
       <c r="L14" s="4">
-        <v>-2497.5000000001091</v>
+        <v>-2497.5</v>
       </c>
       <c r="M14" s="4">
-        <v>452.48028894499998</v>
+        <v>452.48</v>
       </c>
       <c r="N14" s="4">
-        <v>-2949.980288945108</v>
+        <v>-2949.98</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5">
         <v>45292.636111111111</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5">
+        <v>45293.387499999997</v>
+      </c>
       <c r="F15" s="4">
         <v>21890.7</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>21840</v>
+      </c>
       <c r="H15" s="4">
         <v>30.35</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-46.45</v>
+      </c>
       <c r="K15" s="3">
         <v>50</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>-2322.5</v>
       </c>
       <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4"/>
+        <v>446.13</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-2768.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45293.636111111111</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45294.387499999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>21752.85</v>
+      </c>
+      <c r="G16" s="4">
+        <v>21703.5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>31.95</v>
+      </c>
+      <c r="I16" s="4">
+        <v>18.95</v>
+      </c>
+      <c r="J16" s="4">
+        <v>36.35</v>
+      </c>
+      <c r="K16" s="3">
+        <v>50</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1817.5</v>
+      </c>
+      <c r="M16" s="4">
+        <v>443.89</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1373.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45294.636111111111</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45295.387499999997</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21588.75</v>
+      </c>
+      <c r="G17" s="4">
+        <v>21672</v>
+      </c>
+      <c r="H17" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>16.25</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-79.3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>50</v>
+      </c>
+      <c r="L17" s="4">
+        <v>-3965</v>
+      </c>
+      <c r="M17" s="4">
+        <v>443.73157305000001</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-4408.7315730500004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45295.635416666657</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45296.387499999997</v>
+      </c>
+      <c r="F18" s="4">
+        <v>21774.799999999999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>21823.55</v>
+      </c>
+      <c r="H18" s="4">
+        <v>52.95</v>
+      </c>
+      <c r="I18" s="4">
+        <v>35.35</v>
+      </c>
+      <c r="J18" s="4">
+        <v>31.15</v>
+      </c>
+      <c r="K18" s="3">
+        <v>50</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1557.5</v>
+      </c>
+      <c r="M18" s="4">
+        <v>445.79276914500002</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1111.707230855</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3903,63 +4233,63 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="F2" s="4">
         <v>110.75</v>
@@ -3991,19 +4321,19 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4">
         <v>30.3</v>
@@ -4035,19 +4365,19 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F4" s="4">
         <v>70.25</v>
@@ -4079,19 +4409,19 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F5" s="4">
         <v>11.45</v>
@@ -4123,19 +4453,19 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F6" s="4">
         <v>31.75</v>
@@ -4167,19 +4497,19 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="F7" s="4">
         <v>175.1</v>
@@ -4211,19 +4541,19 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4">
         <v>13.8</v>
@@ -4255,19 +4585,19 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F9" s="4">
         <v>66.75</v>
@@ -4299,19 +4629,19 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="F10" s="4">
         <v>41.65</v>
@@ -4343,19 +4673,19 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F11" s="4">
         <v>30.7</v>
@@ -4387,19 +4717,19 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="F12" s="4">
         <v>74.2</v>
@@ -4431,19 +4761,19 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F13" s="4">
         <v>56.95</v>
@@ -4475,19 +4805,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="F14" s="4">
         <v>145.15</v>
@@ -4519,19 +4849,19 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>220</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45286.388888888891</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45286.634027777778</v>
       </c>
       <c r="F15" s="4">
         <v>34.35</v>
@@ -4563,19 +4893,19 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>224</v>
+        <v>151</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45287.388888888891</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45287.634027777778</v>
       </c>
       <c r="F16" s="4">
         <v>124.4</v>
@@ -4607,19 +4937,19 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>228</v>
+        <v>151</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45288.388888888891</v>
+      </c>
+      <c r="E17" s="5">
+        <v>45288.634722222218</v>
       </c>
       <c r="F17" s="4">
         <v>23.65</v>
@@ -4651,19 +4981,19 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>232</v>
+        <v>151</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45289.388888888891</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45289.634027777778</v>
       </c>
       <c r="F18" s="4">
         <v>136.19999999999999</v>
@@ -4695,19 +5025,19 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>236</v>
+        <v>151</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45292.388888888891</v>
+      </c>
+      <c r="E19" s="5">
+        <v>45292.634027777778</v>
       </c>
       <c r="F19" s="4">
         <v>25.05</v>
@@ -4735,6 +5065,182 @@
       </c>
       <c r="N19" s="4">
         <v>1449.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45293.388888888891</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45293.414583333331</v>
+      </c>
+      <c r="F20" s="4">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4">
+        <v>92.25</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="K20" s="3">
+        <v>40</v>
+      </c>
+      <c r="L20" s="4">
+        <v>-2616</v>
+      </c>
+      <c r="M20" s="4">
+        <v>43.06</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-2659.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45294.388888888891</v>
+      </c>
+      <c r="E21" s="5">
+        <v>45294.634027777778</v>
+      </c>
+      <c r="F21" s="4">
+        <v>170.3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H21" s="4">
+        <v>49.65</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>120.6</v>
+      </c>
+      <c r="K21" s="3">
+        <v>15</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1809</v>
+      </c>
+      <c r="M21" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1773.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J22" s="4">
+        <v>14.65</v>
+      </c>
+      <c r="K22" s="3">
+        <v>50</v>
+      </c>
+      <c r="L22" s="4">
+        <v>732.5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>35.51</v>
+      </c>
+      <c r="N22" s="4">
+        <v>696.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" s="4">
+        <v>103.75</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="K23" s="3">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4">
+        <v>836</v>
+      </c>
+      <c r="M23" s="4">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="N23" s="4">
+        <v>800.59</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -4752,46 +5258,103 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4801,24 +5364,43 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>240</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="7">
+        <v>45265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="3">
+        <v>99000</v>
       </c>
     </row>
   </sheetData>
@@ -4828,1548 +5410,1650 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>249</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>251</v>
       </c>
       <c r="F3" t="s">
         <v>252</v>
       </c>
-      <c r="G3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
       </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
         <v>254</v>
       </c>
-      <c r="G4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>250</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>256</v>
       </c>
       <c r="F5" t="s">
         <v>257</v>
       </c>
-      <c r="G5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
         <v>259</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>260</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" t="s">
         <v>270</v>
       </c>
-      <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F16" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
-      </c>
-      <c r="G18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C20" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
         <v>250</v>
       </c>
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" t="s">
-        <v>256</v>
-      </c>
       <c r="F23" t="s">
-        <v>303</v>
-      </c>
-      <c r="G23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" t="s">
-        <v>313</v>
-      </c>
-      <c r="G27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
-        <v>315</v>
-      </c>
-      <c r="G28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F30" t="s">
-        <v>319</v>
-      </c>
-      <c r="G30" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G31" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F32" t="s">
-        <v>324</v>
-      </c>
-      <c r="G32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
-      </c>
-      <c r="G33" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
-      </c>
-      <c r="G34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
-      </c>
-      <c r="G35" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
-      </c>
-      <c r="G36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
-      </c>
-      <c r="G37" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" t="s">
         <v>250</v>
       </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>251</v>
-      </c>
       <c r="F38" t="s">
-        <v>338</v>
-      </c>
-      <c r="G38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
-      </c>
-      <c r="G39" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
-      </c>
-      <c r="G40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
         <v>250</v>
       </c>
-      <c r="D41" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" t="s">
-        <v>256</v>
-      </c>
       <c r="F41" t="s">
-        <v>344</v>
-      </c>
-      <c r="G41" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
-        <v>347</v>
-      </c>
-      <c r="G42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
-      </c>
-      <c r="G43" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F44" t="s">
-        <v>351</v>
-      </c>
-      <c r="G44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F45" t="s">
-        <v>353</v>
-      </c>
-      <c r="G45" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
-      </c>
-      <c r="G46" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
-      </c>
-      <c r="G47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
-      </c>
-      <c r="G48" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F49" t="s">
-        <v>362</v>
-      </c>
-      <c r="G49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>365</v>
-      </c>
-      <c r="G50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
-      </c>
-      <c r="G51" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
-      </c>
-      <c r="G52" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
         <v>250</v>
       </c>
-      <c r="D53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" t="s">
-        <v>251</v>
-      </c>
       <c r="F53" t="s">
-        <v>372</v>
-      </c>
-      <c r="G53" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
-      </c>
-      <c r="G54" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
-      </c>
-      <c r="G55" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
         <v>250</v>
       </c>
-      <c r="D56" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" t="s">
-        <v>256</v>
-      </c>
       <c r="F56" t="s">
-        <v>378</v>
-      </c>
-      <c r="G56" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
-      </c>
-      <c r="G57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
-      </c>
-      <c r="G58" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D59" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
-      </c>
-      <c r="G59" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
-      </c>
-      <c r="G61" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>392</v>
-      </c>
-      <c r="G62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D63" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F63" t="s">
-        <v>394</v>
-      </c>
-      <c r="G63" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
-      </c>
-      <c r="G64" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>399</v>
-      </c>
-      <c r="G65" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>401</v>
-      </c>
-      <c r="G66" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" t="s">
+        <v>259</v>
+      </c>
+      <c r="F69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" t="s">
+        <v>253</v>
+      </c>
+      <c r="F70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>344</v>
+      </c>
+      <c r="C71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>250</v>
+      </c>
+      <c r="F71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" t="s">
+        <v>250</v>
+      </c>
+      <c r="F72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>344</v>
+      </c>
+      <c r="C74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" t="s">
         <v>256</v>
       </c>
-      <c r="F67" t="s">
-        <v>403</v>
-      </c>
-      <c r="G67" t="s">
-        <v>404</v>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78" t="s">
+        <v>253</v>
+      </c>
+      <c r="F78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" t="s">
+        <v>263</v>
+      </c>
+      <c r="D79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" t="s">
+        <v>250</v>
+      </c>
+      <c r="F79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
